--- a/approach2_exp/job_suggestions/candidate_2.xlsx
+++ b/approach2_exp/job_suggestions/candidate_2.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
